--- a/Examenes/Examen_Ordinario/Calificaciones_Examen_Primer_Ordinario_Fisica_4_Grupo_93.xlsx
+++ b/Examenes/Examen_Ordinario/Calificaciones_Examen_Primer_Ordinario_Fisica_4_Grupo_93.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_4\Examenes\Examen_Ordinario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD0C25B-5AC5-485A-9ED4-6CE1A635BDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DDD538-2970-4CA4-A4DC-ABF1DB535B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9270" yWindow="1215" windowWidth="10860" windowHeight="9705" tabRatio="601" xr2:uid="{81B089A4-A2FB-4B02-B24C-FD0A16D28595}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="601" activeTab="1" xr2:uid="{81B089A4-A2FB-4B02-B24C-FD0A16D28595}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Primero" sheetId="1" r:id="rId1"/>
+    <sheet name="Segundo" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$AT$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Primero!$A$1:$AT$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
   <si>
     <t>Matrícula</t>
   </si>
@@ -198,7 +199,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +209,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -233,12 +242,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -588,11 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC68A5D-EF2D-4F9E-9668-BBE2D4875E2F}">
   <dimension ref="A1:AT6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="5805" ySplit="645" topLeftCell="AR1" activePane="bottomRight"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomRight" activeCell="AS6" sqref="AS6"/>
+    <sheetView topLeftCell="R1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:AT4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,7 +614,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1468,4 +1477,312 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EEAA63E-0794-47F2-9B58-D8C27F2AE630}">
+  <dimension ref="A1:AT5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AT2" sqref="AT2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="42" width="4.7109375" style="1" customWidth="1"/>
+    <col min="43" max="43" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>20198334</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="W2" s="1">
+        <v>1</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="1">
+        <f>SUM(C2:AP2)</f>
+        <v>27.5</v>
+      </c>
+      <c r="AR2" s="2">
+        <f>(AQ2/40)*10</f>
+        <v>6.875</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>5.16</v>
+      </c>
+      <c r="AT2" s="2">
+        <f>(AR2+AS2)/2</f>
+        <v>6.0175000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>